--- a/hardware/debug_backplane/rev_b/debug_backplane_bom.xlsx
+++ b/hardware/debug_backplane/rev_b/debug_backplane_bom.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="debug_backplane_new" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="debug_backplane_bom" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="500">
   <si>
     <t xml:space="preserve">Part</t>
   </si>
@@ -517,27 +517,39 @@
     <t xml:space="preserve">CP-102AH-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">J12-15</t>
+    <t xml:space="preserve">J12</t>
   </si>
   <si>
     <t xml:space="preserve">Debug Header</t>
   </si>
   <si>
-    <t xml:space="preserve">2x5 – 0.1” header</t>
+    <t xml:space="preserve">2x5 - 0.1" header</t>
   </si>
   <si>
     <t xml:space="preserve">609-3243-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">J16-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1x3 – 0.1” Header</t>
+    <t xml:space="preserve">J13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1x3 - 0.1" Header</t>
   </si>
   <si>
     <t xml:space="preserve">3M9448-ND</t>
   </si>
   <si>
+    <t xml:space="preserve">J17</t>
+  </si>
+  <si>
     <t xml:space="preserve">L1</t>
   </si>
   <si>
@@ -655,9 +667,6 @@
     <t xml:space="preserve">R1</t>
   </si>
   <si>
-    <t xml:space="preserve">0��</t>
-  </si>
-  <si>
     <t xml:space="preserve">RESISTOR0603_RES</t>
   </si>
   <si>
@@ -673,9 +682,6 @@
     <t xml:space="preserve">R2</t>
   </si>
   <si>
-    <t xml:space="preserve">0.017��</t>
-  </si>
-  <si>
     <t xml:space="preserve">RESISTOR0805_RES</t>
   </si>
   <si>
@@ -697,9 +703,6 @@
     <t xml:space="preserve">R6</t>
   </si>
   <si>
-    <t xml:space="preserve">27��</t>
-  </si>
-  <si>
     <t xml:space="preserve">RESISTOR-HIGH_SPEED0402</t>
   </si>
   <si>
@@ -730,9 +733,6 @@
     <t xml:space="preserve">R12</t>
   </si>
   <si>
-    <t xml:space="preserve">50��</t>
-  </si>
-  <si>
     <t xml:space="preserve">311-47GRCT-ND</t>
   </si>
   <si>
@@ -748,7 +748,7 @@
     <t xml:space="preserve">R16</t>
   </si>
   <si>
-    <t xml:space="preserve">1k��</t>
+    <t xml:space="preserve">1k</t>
   </si>
   <si>
     <t xml:space="preserve">311-1.0KGRCT-ND</t>
@@ -826,7 +826,7 @@
     <t xml:space="preserve">R40</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5k��</t>
+    <t xml:space="preserve">1.5k</t>
   </si>
   <si>
     <t xml:space="preserve">311-1.5KGRCT-ND</t>
@@ -841,7 +841,7 @@
     <t xml:space="preserve">R43</t>
   </si>
   <si>
-    <t xml:space="preserve">2k��</t>
+    <t xml:space="preserve">2k</t>
   </si>
   <si>
     <t xml:space="preserve">RESISTOR0402_RES</t>
@@ -889,7 +889,7 @@
     <t xml:space="preserve">R55</t>
   </si>
   <si>
-    <t xml:space="preserve">10k��</t>
+    <t xml:space="preserve">10k</t>
   </si>
   <si>
     <t xml:space="preserve">311-10KGRCT-ND</t>
@@ -943,7 +943,7 @@
     <t xml:space="preserve">R71</t>
   </si>
   <si>
-    <t xml:space="preserve">10k�� - DNP</t>
+    <t xml:space="preserve">10k - DNP</t>
   </si>
   <si>
     <t xml:space="preserve">R72</t>
@@ -952,7 +952,7 @@
     <t xml:space="preserve">R73</t>
   </si>
   <si>
-    <t xml:space="preserve">15k��</t>
+    <t xml:space="preserve">15k</t>
   </si>
   <si>
     <t xml:space="preserve">311-15KGRCT-ND</t>
@@ -1000,7 +1000,7 @@
     <t xml:space="preserve">R87</t>
   </si>
   <si>
-    <t xml:space="preserve">100k��</t>
+    <t xml:space="preserve">100k</t>
   </si>
   <si>
     <t xml:space="preserve">311-100KGRCT-ND</t>
@@ -1018,7 +1018,7 @@
     <t xml:space="preserve">R91</t>
   </si>
   <si>
-    <t xml:space="preserve">10M��</t>
+    <t xml:space="preserve">10M</t>
   </si>
   <si>
     <t xml:space="preserve">311-10MGRCT-ND</t>
@@ -1042,7 +1042,7 @@
     <t xml:space="preserve">R97</t>
   </si>
   <si>
-    <t xml:space="preserve">1M��</t>
+    <t xml:space="preserve">1M</t>
   </si>
   <si>
     <t xml:space="preserve">311-1.00MHRCT-ND</t>
@@ -1075,7 +1075,7 @@
     <t xml:space="preserve">R106</t>
   </si>
   <si>
-    <t xml:space="preserve">0�� - DNP</t>
+    <t xml:space="preserve">0 - DNP</t>
   </si>
   <si>
     <t xml:space="preserve">S1</t>
@@ -1225,7 +1225,7 @@
     <t xml:space="preserve">36-5001-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">As Labeled on board – under J11</t>
+    <t xml:space="preserve">As Labeled on board - under J11</t>
   </si>
   <si>
     <t xml:space="preserve">TP_5V</t>
@@ -1234,13 +1234,13 @@
     <t xml:space="preserve">36-5000-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">As Labeled on board – under J12</t>
+    <t xml:space="preserve">As Labeled on board - under J12</t>
   </si>
   <si>
     <t xml:space="preserve">TP_3V3</t>
   </si>
   <si>
-    <t xml:space="preserve">As Labeled on board – under J13</t>
+    <t xml:space="preserve">As Labeled on board - under J13</t>
   </si>
   <si>
     <t xml:space="preserve">TP_Mod0_VCC</t>
@@ -1249,25 +1249,25 @@
     <t xml:space="preserve">36-5003-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">As Labeled on board – under J14</t>
+    <t xml:space="preserve">As Labeled on board - under J14</t>
   </si>
   <si>
     <t xml:space="preserve">TP_Mod1_VCC</t>
   </si>
   <si>
-    <t xml:space="preserve">As Labeled on board – under J15</t>
+    <t xml:space="preserve">As Labeled on board - under J15</t>
   </si>
   <si>
     <t xml:space="preserve">TP_Linux_VCC</t>
   </si>
   <si>
-    <t xml:space="preserve">As Labeled on board – under J16</t>
+    <t xml:space="preserve">As Labeled on board - under J16</t>
   </si>
   <si>
     <t xml:space="preserve">TP_Controller_VCC</t>
   </si>
   <si>
-    <t xml:space="preserve">As Labeled on board – under J17</t>
+    <t xml:space="preserve">As Labeled on board - under J17</t>
   </si>
   <si>
     <t xml:space="preserve">TP_LED1</t>
@@ -1276,7 +1276,7 @@
     <t xml:space="preserve">36-5002-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">As Labeled on board – near Q2-9</t>
+    <t xml:space="preserve">As Labeled on board - near Q2-9</t>
   </si>
   <si>
     <t xml:space="preserve">TP_LED2</t>
@@ -1534,6 +1534,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1551,18 +1552,12 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF66"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1599,20 +1594,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1625,66 +1608,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF66"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1693,27 +1616,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K290"/>
+  <dimension ref="A1:K294"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N197" activeCellId="0" sqref="N197"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A106" activeCellId="0" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="41.5867346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="59.7857142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.6632653061224"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="10.0459183673469"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="5.70408163265306"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.8418367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.35204081632653"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.07142857142857"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.1020408163265"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="58.9897959183674"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.12755102040816"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.4030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1744,7 +1663,7 @@
       <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="0" t="s">
@@ -1767,7 +1686,7 @@
       <c r="E2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="0" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1787,7 +1706,7 @@
       <c r="E3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="0" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1807,7 +1726,7 @@
       <c r="E4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="0" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1827,7 +1746,7 @@
       <c r="E5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="0" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1847,7 +1766,7 @@
       <c r="E6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="0" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1867,7 +1786,7 @@
       <c r="E7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="0" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1887,7 +1806,7 @@
       <c r="E8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="0" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1907,7 +1826,7 @@
       <c r="E9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="0" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1927,7 +1846,7 @@
       <c r="E10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="0" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1947,7 +1866,7 @@
       <c r="E11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="0" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1967,7 +1886,7 @@
       <c r="E12" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1987,7 +1906,7 @@
       <c r="E13" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="0" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2007,7 +1926,7 @@
       <c r="E14" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="0" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2027,7 +1946,7 @@
       <c r="E15" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="0" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2047,7 +1966,7 @@
       <c r="E16" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="0" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2067,7 +1986,7 @@
       <c r="E17" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2087,7 +2006,7 @@
       <c r="E18" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2107,7 +2026,7 @@
       <c r="E19" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2127,7 +2046,7 @@
       <c r="E20" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2147,7 +2066,7 @@
       <c r="E21" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2167,7 +2086,7 @@
       <c r="E22" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2187,7 +2106,7 @@
       <c r="E23" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2207,7 +2126,7 @@
       <c r="E24" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2227,7 +2146,7 @@
       <c r="E25" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2247,7 +2166,7 @@
       <c r="E26" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2267,7 +2186,7 @@
       <c r="E27" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2287,7 +2206,7 @@
       <c r="E28" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2307,7 +2226,7 @@
       <c r="E29" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2327,7 +2246,7 @@
       <c r="E30" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2347,7 +2266,7 @@
       <c r="E31" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2367,7 +2286,7 @@
       <c r="E32" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2387,7 +2306,7 @@
       <c r="E33" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2407,7 +2326,7 @@
       <c r="E34" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2427,7 +2346,7 @@
       <c r="E35" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2447,7 +2366,7 @@
       <c r="E36" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2467,7 +2386,7 @@
       <c r="E37" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2487,7 +2406,7 @@
       <c r="E38" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2507,7 +2426,7 @@
       <c r="E39" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2527,7 +2446,7 @@
       <c r="E40" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2547,7 +2466,7 @@
       <c r="E41" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2567,7 +2486,7 @@
       <c r="E42" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2587,7 +2506,7 @@
       <c r="E43" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2607,7 +2526,7 @@
       <c r="E44" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2627,7 +2546,7 @@
       <c r="E45" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2647,7 +2566,7 @@
       <c r="E46" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="0" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2667,7 +2586,7 @@
       <c r="E47" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2687,7 +2606,7 @@
       <c r="E48" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2707,7 +2626,7 @@
       <c r="E49" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2727,7 +2646,7 @@
       <c r="E50" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2747,7 +2666,7 @@
       <c r="E51" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2767,7 +2686,7 @@
       <c r="E52" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2787,7 +2706,7 @@
       <c r="E53" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2807,7 +2726,7 @@
       <c r="E54" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2827,7 +2746,7 @@
       <c r="E55" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2847,7 +2766,7 @@
       <c r="E56" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2867,7 +2786,7 @@
       <c r="E57" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2887,7 +2806,7 @@
       <c r="E58" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2907,7 +2826,7 @@
       <c r="E59" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2927,7 +2846,7 @@
       <c r="E60" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2947,7 +2866,7 @@
       <c r="E61" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2967,7 +2886,7 @@
       <c r="E62" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2987,7 +2906,7 @@
       <c r="E63" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="0" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3007,7 +2926,7 @@
       <c r="E64" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" s="0" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3027,7 +2946,7 @@
       <c r="E65" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="0" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3047,7 +2966,7 @@
       <c r="E66" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="0" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3067,7 +2986,7 @@
       <c r="E67" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="0" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3087,7 +3006,7 @@
       <c r="E68" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="0" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3107,7 +3026,7 @@
       <c r="E69" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" s="0" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3127,7 +3046,7 @@
       <c r="E70" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="0" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3147,7 +3066,7 @@
       <c r="E71" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" s="0" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3167,7 +3086,7 @@
       <c r="E72" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="0" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3187,7 +3106,7 @@
       <c r="E73" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" s="0" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3207,7 +3126,7 @@
       <c r="E74" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" s="0" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3227,7 +3146,7 @@
       <c r="E75" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" s="0" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3247,7 +3166,7 @@
       <c r="E76" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" s="0" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3267,7 +3186,7 @@
       <c r="E77" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F77" s="0" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3327,7 +3246,7 @@
       <c r="E80" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F80" s="0" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3344,7 +3263,7 @@
       <c r="D81" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F81" s="0" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3361,7 +3280,7 @@
       <c r="D82" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F82" s="0" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3378,7 +3297,7 @@
       <c r="D83" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F83" s="0" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3395,7 +3314,7 @@
       <c r="D84" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F84" s="0" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3412,7 +3331,7 @@
       <c r="D85" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="F85" s="0" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3641,7 +3560,7 @@
       <c r="E96" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="F96" s="0" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3678,7 +3597,7 @@
       <c r="D98" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="F98" s="0" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3690,118 +3609,106 @@
         <v>166</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="D100" s="0" t="n">
-        <v>1212</v>
-      </c>
-      <c r="E100" s="0" t="s">
-        <v>175</v>
+        <v>167</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>167</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="E101" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>178</v>
+        <v>167</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="E102" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>110</v>
+        <v>173</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="E103" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>110</v>
+        <v>173</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="D104" s="0" t="s">
-        <v>108</v>
+        <v>178</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>1212</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>107</v>
@@ -3815,13 +3722,13 @@
       <c r="E105" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>183</v>
+      <c r="F105" s="0" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>107</v>
@@ -3835,13 +3742,13 @@
       <c r="E106" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>183</v>
+      <c r="F106" s="0" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>107</v>
@@ -3855,13 +3762,13 @@
       <c r="E107" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>183</v>
+      <c r="F107" s="0" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>107</v>
@@ -3875,13 +3782,13 @@
       <c r="E108" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>183</v>
+      <c r="F108" s="0" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>107</v>
@@ -3895,8 +3802,8 @@
       <c r="E109" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>183</v>
+      <c r="F109" s="0" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3915,8 +3822,8 @@
       <c r="E110" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="F110" s="2" t="s">
-        <v>178</v>
+      <c r="F110" s="0" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3935,8 +3842,8 @@
       <c r="E111" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>110</v>
+      <c r="F111" s="0" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3955,8 +3862,8 @@
       <c r="E112" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>178</v>
+      <c r="F112" s="0" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3975,8 +3882,8 @@
       <c r="E113" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>110</v>
+      <c r="F113" s="0" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3984,119 +3891,119 @@
         <v>192</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>194</v>
+        <v>108</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>201</v>
+        <v>109</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>201</v>
+        <v>109</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>201</v>
+        <v>109</v>
+      </c>
+      <c r="F117" s="0" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B118" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D118" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="C118" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="D118" s="0" t="s">
+      <c r="E118" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="E118" s="0" t="s">
+      <c r="F118" s="0" t="s">
         <v>200</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="F119" s="0" t="s">
         <v>205</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="E119" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4104,19 +4011,19 @@
         <v>206</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4124,19 +4031,19 @@
         <v>207</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4144,19 +4051,19 @@
         <v>208</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4164,19 +4071,19 @@
         <v>209</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4184,924 +4091,924 @@
         <v>210</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>220</v>
+        <v>204</v>
+      </c>
+      <c r="F125" s="0" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>220</v>
+        <v>204</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>220</v>
+        <v>204</v>
+      </c>
+      <c r="F127" s="0" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="B128" s="0" t="s">
-        <v>217</v>
+        <v>214</v>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="C128" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F128" s="0" t="s">
         <v>218</v>
-      </c>
-      <c r="D128" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="E128" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B129" s="0" t="s">
-        <v>225</v>
+        <v>219</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>0.017</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>229</v>
+        <v>217</v>
+      </c>
+      <c r="F129" s="0" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B130" s="0" t="s">
-        <v>225</v>
+        <v>223</v>
+      </c>
+      <c r="B130" s="0" t="n">
+        <v>0.017</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>229</v>
+        <v>217</v>
+      </c>
+      <c r="F130" s="0" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="B131" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
+      </c>
+      <c r="B131" s="0" t="n">
+        <v>0.017</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>229</v>
+        <v>217</v>
+      </c>
+      <c r="F131" s="0" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="B132" s="0" t="s">
         <v>225</v>
       </c>
+      <c r="B132" s="0" t="n">
+        <v>0.017</v>
+      </c>
       <c r="C132" s="0" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>229</v>
+        <v>217</v>
+      </c>
+      <c r="F132" s="0" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="B133" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="B133" s="0" t="n">
+        <v>27</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="F133" s="2" t="s">
         <v>229</v>
+      </c>
+      <c r="F133" s="0" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="B134" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
+      </c>
+      <c r="B134" s="0" t="n">
+        <v>27</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="F134" s="2" t="s">
         <v>229</v>
+      </c>
+      <c r="F134" s="0" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="B135" s="0" t="s">
-        <v>236</v>
+        <v>232</v>
+      </c>
+      <c r="B135" s="0" t="n">
+        <v>27</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
+      </c>
+      <c r="F135" s="0" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="B136" s="0" t="s">
-        <v>236</v>
+        <v>233</v>
+      </c>
+      <c r="B136" s="0" t="n">
+        <v>27</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
+      </c>
+      <c r="F136" s="0" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="B137" s="0" t="s">
-        <v>236</v>
+        <v>234</v>
+      </c>
+      <c r="B137" s="0" t="n">
+        <v>27</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
+      </c>
+      <c r="F137" s="0" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="B138" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
+      </c>
+      <c r="B138" s="0" t="n">
+        <v>27</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
+      </c>
+      <c r="F138" s="0" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="B139" s="0" t="s">
-        <v>242</v>
+        <v>236</v>
+      </c>
+      <c r="B139" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>243</v>
+        <v>217</v>
+      </c>
+      <c r="F139" s="0" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="B140" s="0" t="s">
-        <v>242</v>
+        <v>238</v>
+      </c>
+      <c r="B140" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>243</v>
+        <v>217</v>
+      </c>
+      <c r="F140" s="0" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="B141" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
+      </c>
+      <c r="B141" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>243</v>
+        <v>217</v>
+      </c>
+      <c r="F141" s="0" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="B142" s="0" t="s">
-        <v>242</v>
+        <v>240</v>
+      </c>
+      <c r="B142" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>243</v>
+        <v>217</v>
+      </c>
+      <c r="F142" s="0" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B143" s="0" t="s">
         <v>242</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F143" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F143" s="0" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B144" s="0" t="s">
         <v>242</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F144" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F144" s="0" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B145" s="0" t="s">
         <v>242</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F145" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F145" s="0" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B146" s="0" t="s">
         <v>242</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F146" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F146" s="0" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B147" s="0" t="s">
         <v>242</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F147" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F147" s="0" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B148" s="0" t="s">
         <v>242</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F148" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F148" s="0" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B149" s="0" t="s">
         <v>242</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F149" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F149" s="0" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B150" s="0" t="s">
         <v>242</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F150" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F150" s="0" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B151" s="0" t="s">
         <v>242</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F151" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F151" s="0" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B152" s="0" t="s">
         <v>242</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F152" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F152" s="0" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B153" s="0" t="s">
         <v>242</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F153" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F153" s="0" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B154" s="0" t="s">
         <v>242</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F154" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F154" s="0" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B155" s="0" t="s">
         <v>242</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F155" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F155" s="0" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B156" s="0" t="s">
         <v>242</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F156" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F156" s="0" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B157" s="0" t="s">
         <v>242</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F157" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F157" s="0" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B158" s="0" t="s">
         <v>242</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F158" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F158" s="0" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B159" s="0" t="s">
         <v>242</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F159" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F159" s="0" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B160" s="0" t="s">
         <v>242</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F160" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F160" s="0" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B161" s="0" t="s">
         <v>242</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F161" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F161" s="0" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B162" s="0" t="s">
         <v>242</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F162" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F162" s="0" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>269</v>
+        <v>217</v>
+      </c>
+      <c r="F163" s="0" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>269</v>
+        <v>217</v>
+      </c>
+      <c r="F164" s="0" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>269</v>
+        <v>217</v>
+      </c>
+      <c r="F165" s="0" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>276</v>
+        <v>217</v>
+      </c>
+      <c r="F166" s="0" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>276</v>
+        <v>217</v>
+      </c>
+      <c r="F167" s="0" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>276</v>
+        <v>217</v>
+      </c>
+      <c r="F168" s="0" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>276</v>
+        <v>217</v>
+      </c>
+      <c r="F169" s="0" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B170" s="0" t="s">
         <v>273</v>
@@ -5113,15 +5020,15 @@
         <v>275</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F170" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F170" s="0" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B171" s="0" t="s">
         <v>273</v>
@@ -5133,15 +5040,15 @@
         <v>275</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F171" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F171" s="0" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B172" s="0" t="s">
         <v>273</v>
@@ -5153,15 +5060,15 @@
         <v>275</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F172" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F172" s="0" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B173" s="0" t="s">
         <v>273</v>
@@ -5173,15 +5080,15 @@
         <v>275</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F173" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F173" s="0" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B174" s="0" t="s">
         <v>273</v>
@@ -5193,15 +5100,15 @@
         <v>275</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F174" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F174" s="0" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B175" s="0" t="s">
         <v>273</v>
@@ -5213,15 +5120,15 @@
         <v>275</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F175" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F175" s="0" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B176" s="0" t="s">
         <v>273</v>
@@ -5233,15 +5140,15 @@
         <v>275</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F176" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F176" s="0" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B177" s="0" t="s">
         <v>273</v>
@@ -5253,953 +5160,950 @@
         <v>275</v>
       </c>
       <c r="E177" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F177" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F177" s="0" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>213</v>
+        <v>275</v>
       </c>
       <c r="E178" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>290</v>
+        <v>217</v>
+      </c>
+      <c r="F178" s="0" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>213</v>
+        <v>275</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>290</v>
+        <v>217</v>
+      </c>
+      <c r="F179" s="0" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>213</v>
+        <v>275</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>290</v>
+        <v>217</v>
+      </c>
+      <c r="F180" s="0" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>213</v>
+        <v>275</v>
       </c>
       <c r="E181" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>290</v>
+        <v>217</v>
+      </c>
+      <c r="F181" s="0" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B182" s="0" t="s">
         <v>289</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E182" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F182" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F182" s="0" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B183" s="0" t="s">
         <v>289</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F183" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F183" s="0" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B184" s="0" t="s">
         <v>289</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F184" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F184" s="0" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B185" s="0" t="s">
         <v>289</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F185" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F185" s="0" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B186" s="0" t="s">
         <v>289</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E186" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F186" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F186" s="0" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B187" s="0" t="s">
         <v>289</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F187" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F187" s="0" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B188" s="0" t="s">
         <v>289</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F188" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F188" s="0" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B189" s="0" t="s">
         <v>289</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E189" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F189" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F189" s="0" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B190" s="0" t="s">
         <v>289</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E190" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F190" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F190" s="0" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B191" s="0" t="s">
         <v>289</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E191" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F191" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F191" s="0" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B192" s="0" t="s">
         <v>289</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E192" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F192" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F192" s="0" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B193" s="0" t="s">
         <v>289</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E193" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F193" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F193" s="0" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F194" s="3" t="s">
+      <c r="A194" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="C194" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="D194" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="E194" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F194" s="0" t="s">
         <v>290</v>
-      </c>
-      <c r="G194" s="3"/>
-      <c r="H194" s="3"/>
-      <c r="I194" s="3"/>
-      <c r="J194" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B195" s="0" t="s">
         <v>289</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E195" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F195" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F195" s="0" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>311</v>
+        <v>217</v>
+      </c>
+      <c r="F196" s="0" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>311</v>
+        <v>217</v>
+      </c>
+      <c r="F197" s="0" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E198" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>311</v>
+        <v>217</v>
+      </c>
+      <c r="F198" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="J198" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E199" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>311</v>
+        <v>217</v>
+      </c>
+      <c r="F199" s="0" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B200" s="0" t="s">
         <v>310</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E200" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F200" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F200" s="0" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B201" s="0" t="s">
         <v>310</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F201" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F201" s="0" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B202" s="0" t="s">
         <v>310</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E202" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F202" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F202" s="0" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B203" s="0" t="s">
         <v>310</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F203" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F203" s="0" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B204" s="0" t="s">
         <v>310</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F204" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F204" s="0" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B205" s="0" t="s">
         <v>310</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F205" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F205" s="0" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B206" s="0" t="s">
         <v>310</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F206" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F206" s="0" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B207" s="0" t="s">
         <v>310</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E207" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F207" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F207" s="0" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B208" s="0" t="s">
         <v>310</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E208" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F208" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F208" s="0" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B209" s="0" t="s">
         <v>310</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E209" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F209" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F209" s="0" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E210" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>327</v>
+        <v>217</v>
+      </c>
+      <c r="F210" s="0" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>327</v>
+        <v>217</v>
+      </c>
+      <c r="F211" s="0" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>327</v>
+        <v>217</v>
+      </c>
+      <c r="F212" s="0" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>327</v>
+        <v>217</v>
+      </c>
+      <c r="F213" s="0" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>333</v>
+        <v>217</v>
+      </c>
+      <c r="F214" s="0" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>333</v>
+        <v>217</v>
+      </c>
+      <c r="F215" s="0" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>333</v>
+        <v>217</v>
+      </c>
+      <c r="F216" s="0" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>333</v>
+        <v>217</v>
+      </c>
+      <c r="F217" s="0" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B218" s="0" t="s">
         <v>332</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E218" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F218" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F218" s="0" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B219" s="0" t="s">
         <v>332</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E219" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F219" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F219" s="0" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E220" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E221" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E222" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E223" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B224" s="0" t="s">
         <v>340</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E224" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F224" s="0" t="s">
         <v>341</v>
@@ -6207,19 +6111,19 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B225" s="0" t="s">
         <v>340</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E225" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F225" s="0" t="s">
         <v>341</v>
@@ -6227,19 +6131,19 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B226" s="0" t="s">
         <v>340</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E226" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F226" s="0" t="s">
         <v>341</v>
@@ -6247,19 +6151,19 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B227" s="0" t="s">
         <v>340</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E227" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F227" s="0" t="s">
         <v>341</v>
@@ -6267,173 +6171,170 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>242</v>
+        <v>340</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>243</v>
+        <v>217</v>
+      </c>
+      <c r="F228" s="0" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D229" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E229" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F229" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G229" s="3"/>
-      <c r="H229" s="3"/>
-      <c r="I229" s="3"/>
-      <c r="J229" s="3" t="s">
-        <v>9</v>
+      <c r="A229" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="C229" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="D229" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="E229" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F229" s="0" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>353</v>
+        <v>215</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>354</v>
+        <v>216</v>
       </c>
       <c r="E230" s="0" t="s">
-        <v>355</v>
+        <v>217</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>353</v>
+        <v>215</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>354</v>
+        <v>216</v>
       </c>
       <c r="E231" s="0" t="s">
-        <v>355</v>
+        <v>217</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>359</v>
+        <v>242</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>359</v>
+        <v>215</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>359</v>
+        <v>216</v>
       </c>
       <c r="E232" s="0" t="s">
-        <v>360</v>
+        <v>217</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>361</v>
+        <v>243</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>359</v>
+        <v>215</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>359</v>
+        <v>216</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>360</v>
+        <v>217</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>361</v>
+        <v>218</v>
+      </c>
+      <c r="J233" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E234" s="0" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E235" s="0" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B236" s="0" t="s">
         <v>359</v>
@@ -6453,7 +6354,7 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B237" s="0" t="s">
         <v>359</v>
@@ -6473,175 +6374,187 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="E238" s="0" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="E239" s="0" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="E240" s="0" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="E242" s="0" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>386</v>
+        <v>369</v>
+      </c>
+      <c r="E243" s="0" t="s">
+        <v>370</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>386</v>
+        <v>375</v>
+      </c>
+      <c r="E244" s="0" t="s">
+        <v>376</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>386</v>
+        <v>380</v>
+      </c>
+      <c r="E245" s="0" t="s">
+        <v>381</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>386</v>
+        <v>380</v>
+      </c>
+      <c r="E246" s="0" t="s">
+        <v>381</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B247" s="0" t="s">
         <v>385</v>
@@ -6658,119 +6571,95 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="E248" s="0" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="E249" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="K249" s="0" t="s">
-        <v>401</v>
+        <v>386</v>
+      </c>
+      <c r="F249" s="0" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="E250" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="F250" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="K250" s="0" t="s">
-        <v>404</v>
+        <v>386</v>
+      </c>
+      <c r="F250" s="0" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="E251" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="F251" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="K251" s="0" t="s">
-        <v>406</v>
+        <v>386</v>
+      </c>
+      <c r="F251" s="0" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E252" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="F252" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="K252" s="0" t="s">
-        <v>409</v>
+        <v>394</v>
+      </c>
+      <c r="F252" s="0" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B253" s="0" t="s">
         <v>397</v>
@@ -6784,16 +6673,16 @@
       <c r="E253" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="F253" s="2" t="s">
-        <v>408</v>
+      <c r="F253" s="0" t="s">
+        <v>400</v>
       </c>
       <c r="K253" s="0" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B254" s="0" t="s">
         <v>397</v>
@@ -6807,16 +6696,16 @@
       <c r="E254" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="F254" s="2" t="s">
-        <v>408</v>
+      <c r="F254" s="0" t="s">
+        <v>403</v>
       </c>
       <c r="K254" s="0" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B255" s="0" t="s">
         <v>397</v>
@@ -6830,16 +6719,16 @@
       <c r="E255" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="F255" s="2" t="s">
-        <v>408</v>
+      <c r="F255" s="0" t="s">
+        <v>403</v>
       </c>
       <c r="K255" s="0" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="B256" s="0" t="s">
         <v>397</v>
@@ -6853,16 +6742,16 @@
       <c r="E256" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="F256" s="2" t="s">
-        <v>417</v>
+      <c r="F256" s="0" t="s">
+        <v>408</v>
       </c>
       <c r="K256" s="0" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B257" s="0" t="s">
         <v>397</v>
@@ -6876,16 +6765,16 @@
       <c r="E257" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="F257" s="2" t="s">
-        <v>417</v>
+      <c r="F257" s="0" t="s">
+        <v>408</v>
       </c>
       <c r="K257" s="0" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B258" s="0" t="s">
         <v>397</v>
@@ -6899,16 +6788,16 @@
       <c r="E258" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="F258" s="2" t="s">
-        <v>417</v>
+      <c r="F258" s="0" t="s">
+        <v>408</v>
       </c>
       <c r="K258" s="0" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B259" s="0" t="s">
         <v>397</v>
@@ -6922,16 +6811,16 @@
       <c r="E259" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="F259" s="2" t="s">
-        <v>417</v>
+      <c r="F259" s="0" t="s">
+        <v>408</v>
       </c>
       <c r="K259" s="0" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B260" s="0" t="s">
         <v>397</v>
@@ -6945,8 +6834,8 @@
       <c r="E260" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="F260" s="2" t="s">
-        <v>420</v>
+      <c r="F260" s="0" t="s">
+        <v>417</v>
       </c>
       <c r="K260" s="0" t="s">
         <v>418</v>
@@ -6954,7 +6843,7 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B261" s="0" t="s">
         <v>397</v>
@@ -6968,8 +6857,8 @@
       <c r="E261" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="F261" s="2" t="s">
-        <v>420</v>
+      <c r="F261" s="0" t="s">
+        <v>417</v>
       </c>
       <c r="K261" s="0" t="s">
         <v>418</v>
@@ -6977,7 +6866,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B262" s="0" t="s">
         <v>397</v>
@@ -6991,8 +6880,8 @@
       <c r="E262" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="F262" s="2" t="s">
-        <v>420</v>
+      <c r="F262" s="0" t="s">
+        <v>417</v>
       </c>
       <c r="K262" s="0" t="s">
         <v>418</v>
@@ -7000,7 +6889,7 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B263" s="0" t="s">
         <v>397</v>
@@ -7014,8 +6903,8 @@
       <c r="E263" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="F263" s="2" t="s">
-        <v>420</v>
+      <c r="F263" s="0" t="s">
+        <v>417</v>
       </c>
       <c r="K263" s="0" t="s">
         <v>418</v>
@@ -7023,87 +6912,99 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="D264" s="0" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="E264" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="F264" s="2" t="s">
-        <v>425</v>
+        <v>399</v>
+      </c>
+      <c r="F264" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="K264" s="0" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="D265" s="0" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="E265" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="F265" s="2" t="s">
-        <v>425</v>
+        <v>399</v>
+      </c>
+      <c r="F265" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="K265" s="0" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="D266" s="0" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="E266" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="F266" s="2" t="s">
-        <v>425</v>
+        <v>399</v>
+      </c>
+      <c r="F266" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="K266" s="0" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="D267" s="0" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="E267" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="F267" s="2" t="s">
-        <v>425</v>
+        <v>399</v>
+      </c>
+      <c r="F267" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="K267" s="0" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B268" s="0" t="s">
         <v>422</v>
@@ -7117,447 +7018,527 @@
       <c r="E268" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="F268" s="2" t="s">
+      <c r="F268" s="0" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F269" s="0" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="D270" s="0" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E270" s="0" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F270" s="0" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="D271" s="0" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="E271" s="0" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="F271" s="0" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="D272" s="0" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="E272" s="0" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="F272" s="0" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E273" s="0" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F273" s="0" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D274" s="0" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E274" s="0" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F274" s="0" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="D275" s="0" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E275" s="0" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F275" s="0" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D276" s="0" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E276" s="0" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="F276" s="0" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D277" s="0" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E277" s="0" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="F277" s="0" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="D278" s="0" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="E278" s="0" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="F278" s="0" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="D279" s="0" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="E279" s="0" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="F279" s="0" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="D280" s="0" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="E280" s="0" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="F280" s="0" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="D281" s="0" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="E281" s="0" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="F281" s="0" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="D282" s="0" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="E282" s="0" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F282" s="0" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D283" s="0" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E283" s="0" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F283" s="0" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D284" s="0" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E284" s="0" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F284" s="0" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D285" s="0" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E285" s="0" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F285" s="0" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D286" s="0" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E286" s="0" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F286" s="0" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="D287" s="0" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="E287" s="0" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="F287" s="0" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="D288" s="0" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="E288" s="0" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F288" s="0" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="D289" s="0" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="E289" s="0" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="F289" s="0" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B290" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C290" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="D290" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="E290" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="F290" s="0" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="B291" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="C291" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="D291" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="E291" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="F291" s="0" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="B292" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="C292" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="D292" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="E292" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="F292" s="0" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="B293" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="C293" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="D293" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="E293" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="F293" s="0" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="B290" s="0" t="s">
+      <c r="B294" s="0" t="s">
         <v>497</v>
       </c>
-      <c r="C290" s="0" t="s">
+      <c r="C294" s="0" t="s">
         <v>497</v>
       </c>
-      <c r="D290" s="0" t="s">
+      <c r="D294" s="0" t="s">
         <v>497</v>
       </c>
-      <c r="E290" s="0" t="s">
+      <c r="E294" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="F290" s="0" t="s">
+      <c r="F294" s="0" t="s">
         <v>499</v>
       </c>
     </row>
